--- a/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Habitat-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>11771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9161</v>
+        <v>8706</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13519</v>
@@ -750,10 +750,10 @@
         <v>0.817567752723159</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6362788973570122</v>
+        <v>0.6047283759954537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9390371072340387</v>
+        <v>0.9390299761803371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -762,19 +762,19 @@
         <v>15595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12596</v>
+        <v>12554</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18005</v>
+        <v>18070</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7103892996675041</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5737501196405709</v>
+        <v>0.5718491075737814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8201632040245798</v>
+        <v>0.823141082389327</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -783,19 +783,19 @@
         <v>27366</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23868</v>
+        <v>23220</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30672</v>
+        <v>30534</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7528389811522658</v>
+        <v>0.7528389811522657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6565870815201554</v>
+        <v>0.6387854351401843</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8437727986512336</v>
+        <v>0.8399789672401972</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>878</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5236</v>
+        <v>5691</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.182432247276841</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06096289276596119</v>
+        <v>0.06097002381966275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3637211026429873</v>
+        <v>0.3952716240045462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -833,19 +833,19 @@
         <v>6358</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3948</v>
+        <v>3883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9357</v>
+        <v>9399</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2896107003324959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1798367959754202</v>
+        <v>0.1768589176106729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4262498803594292</v>
+        <v>0.4281508924262185</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>8985</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5679</v>
+        <v>5817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12483</v>
+        <v>13131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2471610188477344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1562272013487665</v>
+        <v>0.1600210327598028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3434129184798451</v>
+        <v>0.3612145648598159</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>4835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2589</v>
+        <v>2511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7062</v>
+        <v>7104</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5779044294954716</v>
+        <v>0.5779044294954717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3094726365505959</v>
+        <v>0.3000963967288625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8441773615799097</v>
+        <v>0.8491260695277026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -979,19 +979,19 @@
         <v>17282</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14020</v>
+        <v>14282</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19964</v>
+        <v>19962</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7357922439723332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.596894592906056</v>
+        <v>0.6080451620703552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8499867500807208</v>
+        <v>0.8498849495377034</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -1000,19 +1000,19 @@
         <v>22117</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18012</v>
+        <v>17540</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25833</v>
+        <v>25604</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6943234961166631</v>
+        <v>0.6943234961166632</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5654394510261919</v>
+        <v>0.5506363483749497</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.810976486191211</v>
+        <v>0.8037927033754485</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>3531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1304</v>
+        <v>1262</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5777</v>
+        <v>5855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4220955705045282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1558226384200901</v>
+        <v>0.1508739304722973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6905273634494038</v>
+        <v>0.6999036032711377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1050,19 +1050,19 @@
         <v>6206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9468</v>
+        <v>9206</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2642077560276669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1500132499192791</v>
+        <v>0.1501150504622977</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4031054070939437</v>
+        <v>0.3919548379296452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1071,19 +1071,19 @@
         <v>9737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6021</v>
+        <v>6250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13842</v>
+        <v>14314</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3056765038833369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1890235138087891</v>
+        <v>0.1962072966245516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4345605489738082</v>
+        <v>0.4493636516250503</v>
       </c>
     </row>
     <row r="9">
@@ -1175,16 +1175,16 @@
         <v>2802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1114</v>
+        <v>772</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4655</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6018475223293744</v>
+        <v>0.6018475223293743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2393483584984133</v>
+        <v>0.1657759837687449</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1196,19 +1196,19 @@
         <v>20602</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16968</v>
+        <v>17305</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22888</v>
+        <v>22942</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8475721688868213</v>
+        <v>0.8475721688868211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6980651119064863</v>
+        <v>0.7119277850555781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9416235607610309</v>
+        <v>0.9438275230384011</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1217,19 +1217,19 @@
         <v>23404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19038</v>
+        <v>19095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26417</v>
+        <v>26461</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8080766447654638</v>
+        <v>0.8080766447654637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6573424444553208</v>
+        <v>0.6593145360329963</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9121096619355721</v>
+        <v>0.9136604939320876</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3623</v>
+        <v>3883</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3981524776706257</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7782312068734735</v>
+        <v>0.8342225894018273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1267,19 +1267,19 @@
         <v>3705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1419</v>
+        <v>1365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7339</v>
+        <v>7002</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1524278311131788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05837643923896964</v>
+        <v>0.05617247696159917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3019348880935137</v>
+        <v>0.2880722149444223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1288,19 +1288,19 @@
         <v>5558</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2545</v>
+        <v>2501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9924</v>
+        <v>9867</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1919233552345362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08789033806442811</v>
+        <v>0.08633950606791255</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3426575555446793</v>
+        <v>0.3406854639670046</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>4986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2475</v>
+        <v>2321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7830</v>
+        <v>7706</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4666092776744036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2316449836728767</v>
+        <v>0.2172321548595096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.732824467134193</v>
+        <v>0.7211860529132512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1413,19 +1413,19 @@
         <v>11423</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7738</v>
+        <v>7923</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14544</v>
+        <v>14491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5931926346804667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4018390259499824</v>
+        <v>0.4114478998762995</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7552954374168879</v>
+        <v>0.7525292126990277</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1434,19 +1434,19 @@
         <v>16409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11992</v>
+        <v>12029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20168</v>
+        <v>20164</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.548019220021048</v>
+        <v>0.5480192200210481</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4005006321843012</v>
+        <v>0.4017395168811219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6735646632576037</v>
+        <v>0.6734470661199772</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>5699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2855</v>
+        <v>2979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8210</v>
+        <v>8364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5333907223255965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2671755328658069</v>
+        <v>0.2788139470867487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7683550163271237</v>
+        <v>0.7827678451404904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1484,19 +1484,19 @@
         <v>7833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4712</v>
+        <v>4765</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11518</v>
+        <v>11333</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4068073653195333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2447045625831118</v>
+        <v>0.2474707873009725</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5981609740500174</v>
+        <v>0.5885521001237002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1505,19 +1505,19 @@
         <v>13533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9774</v>
+        <v>9778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17950</v>
+        <v>17913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.451980779978952</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3264353367423964</v>
+        <v>0.326552933880023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5994993678156993</v>
+        <v>0.5982604831188784</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>24393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6401745472237639</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -1630,19 +1630,19 @@
         <v>64902</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58372</v>
+        <v>58671</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70339</v>
+        <v>70528</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7292012165671371</v>
+        <v>0.7292012165671372</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6558374810420674</v>
+        <v>0.6591992303814431</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7902907998026882</v>
+        <v>0.7924149587477185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>163</v>
@@ -1651,19 +1651,19 @@
         <v>89295</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81210</v>
+        <v>81512</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96862</v>
+        <v>97160</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.702513263600106</v>
+        <v>0.7025132636001061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6389084942220862</v>
+        <v>0.6412783470582182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7620444482468249</v>
+        <v>0.7643902439353749</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>13711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -1701,19 +1701,19 @@
         <v>24102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18665</v>
+        <v>18476</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30632</v>
+        <v>30333</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2707987834328629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2097092001973117</v>
+        <v>0.2075850412522814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3441625189579326</v>
+        <v>0.3408007696185565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>68</v>
@@ -1722,19 +1722,19 @@
         <v>37813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30246</v>
+        <v>29948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45898</v>
+        <v>45596</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2974867363998938</v>
+        <v>0.2974867363998939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2379555517531751</v>
+        <v>0.2356097560646251</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3610915057779139</v>
+        <v>0.3587216529417819</v>
       </c>
     </row>
     <row r="18">
